--- a/AI_Field_Mapping.xlsx
+++ b/AI_Field_Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham.s/Desktop/mapping_automation_testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham.s/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B49CC-8AC4-A945-ACC7-B56CB6E73EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AB1A6C-49C5-CC4E-94CA-E9D314E80BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Target Field</t>
   </si>
@@ -38,25 +38,34 @@
     <t>Logic</t>
   </si>
   <si>
-    <t>discrepancyTypeCode</t>
+    <t>[*].discrepancyTypeCode</t>
   </si>
   <si>
     <t>Direct</t>
   </si>
   <si>
-    <t>visitStatusCode</t>
-  </si>
-  <si>
-    <t>shortlandCount</t>
-  </si>
-  <si>
-    <t>docTypeCode</t>
-  </si>
-  <si>
-    <t>bolUserDefinedCode3</t>
-  </si>
-  <si>
-    <t>qty</t>
+    <t>[*].visitStatusCode</t>
+  </si>
+  <si>
+    <t>[*].shortlandCount</t>
+  </si>
+  <si>
+    <t>[*].docTypeCode</t>
+  </si>
+  <si>
+    <t>[*].bolUserDefinedCode3</t>
+  </si>
+  <si>
+    <t>[*].qty</t>
+  </si>
+  <si>
+    <t>[*].tests.test1</t>
+  </si>
+  <si>
+    <t>[*].tests.test2</t>
+  </si>
+  <si>
+    <t>[*].testArray[*].name</t>
   </si>
   <si>
     <t>Source Fields</t>
@@ -425,18 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -540,9 +547,51 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showDropDown="1" sqref="D2:D7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showDropDown="1" sqref="D2:D10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Direct,Logic"</formula1>
     </dataValidation>
   </dataValidations>
@@ -552,9 +601,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showDropDown="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>DropdownValues!$A$2:$A$11</xm:f>
+            <xm:f>DropdownValues!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -564,7 +613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -572,27 +621,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -623,6 +672,21 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
